--- a/leave/src/main/resources/TestData/Accural/MultipleLeaveAllotmentWithCarryForward.xlsx
+++ b/leave/src/main/resources/TestData/Accural/MultipleLeaveAllotmentWithCarryForward.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\Desktop\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\Desktop\yeten\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA6C04E-B81D-4087-9C74-B4AAE95549E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E71843E-357D-4A1A-8365-812494A25954}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3273,9 +3273,6 @@
     <t>10</t>
   </si>
   <si>
-    <t>MA1</t>
-  </si>
-  <si>
     <t>MA2</t>
   </si>
   <si>
@@ -4078,6 +4075,9 @@
   </si>
   <si>
     <t>financial</t>
+  </si>
+  <si>
+    <t>testMAQ</t>
   </si>
 </sst>
 </file>
@@ -4469,9 +4469,9 @@
   <dimension ref="A1:AB268"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4582,16 +4582,16 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>533</v>
+        <v>801</v>
       </c>
       <c r="E2" s="5">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>26</v>
@@ -4668,16 +4668,16 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E3" s="5">
         <v>12</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>26</v>
@@ -4754,16 +4754,16 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>26</v>
@@ -4840,16 +4840,16 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>26</v>
@@ -4926,7 +4926,7 @@
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>28</v>
@@ -5004,7 +5004,7 @@
         <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>28</v>
@@ -5082,16 +5082,16 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>26</v>
@@ -5168,16 +5168,16 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>26</v>
@@ -5254,16 +5254,16 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>26</v>
@@ -5340,16 +5340,16 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>26</v>
@@ -5426,16 +5426,16 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>26</v>
@@ -5512,16 +5512,16 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>26</v>
@@ -5598,16 +5598,16 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>26</v>
@@ -5684,16 +5684,16 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>26</v>
@@ -5770,16 +5770,16 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>26</v>
@@ -5856,16 +5856,16 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>26</v>
@@ -5942,16 +5942,16 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>26</v>
@@ -6028,16 +6028,16 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>26</v>
@@ -6114,16 +6114,16 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>26</v>
@@ -6200,16 +6200,16 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>26</v>
@@ -6286,16 +6286,16 @@
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>26</v>
@@ -6372,16 +6372,16 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>26</v>
@@ -6458,16 +6458,16 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>26</v>
@@ -6544,16 +6544,16 @@
         <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>26</v>
@@ -6630,16 +6630,16 @@
         <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>26</v>
@@ -6716,16 +6716,16 @@
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>26</v>
@@ -6802,7 +6802,7 @@
         <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>28</v>
@@ -6880,7 +6880,7 @@
         <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>28</v>
@@ -6958,7 +6958,7 @@
         <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>28</v>
@@ -7036,7 +7036,7 @@
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>28</v>
@@ -7114,7 +7114,7 @@
         <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>28</v>
@@ -7192,7 +7192,7 @@
         <v>30</v>
       </c>
       <c r="D33" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>28</v>
@@ -7270,7 +7270,7 @@
         <v>30</v>
       </c>
       <c r="D34" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>28</v>
@@ -7348,7 +7348,7 @@
         <v>30</v>
       </c>
       <c r="D35" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>28</v>
@@ -7426,7 +7426,7 @@
         <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>28</v>
@@ -7504,7 +7504,7 @@
         <v>30</v>
       </c>
       <c r="D37" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>28</v>
@@ -7582,7 +7582,7 @@
         <v>30</v>
       </c>
       <c r="D38" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>28</v>
@@ -7660,7 +7660,7 @@
         <v>30</v>
       </c>
       <c r="D39" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>28</v>
@@ -7738,7 +7738,7 @@
         <v>30</v>
       </c>
       <c r="D40" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>28</v>
@@ -7816,7 +7816,7 @@
         <v>30</v>
       </c>
       <c r="D41" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>28</v>
@@ -7894,7 +7894,7 @@
         <v>30</v>
       </c>
       <c r="D42" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>28</v>
@@ -7972,16 +7972,16 @@
         <v>26</v>
       </c>
       <c r="D43" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E43" s="5">
         <v>12</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>30</v>
@@ -8058,16 +8058,16 @@
         <v>26</v>
       </c>
       <c r="D44" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>30</v>
@@ -8144,16 +8144,16 @@
         <v>26</v>
       </c>
       <c r="D45" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>30</v>
@@ -8230,16 +8230,16 @@
         <v>26</v>
       </c>
       <c r="D46" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>30</v>
@@ -8316,7 +8316,7 @@
         <v>30</v>
       </c>
       <c r="D47" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>28</v>
@@ -8394,7 +8394,7 @@
         <v>30</v>
       </c>
       <c r="D48" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>28</v>
@@ -8472,16 +8472,16 @@
         <v>26</v>
       </c>
       <c r="D49" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>30</v>
@@ -8558,16 +8558,16 @@
         <v>26</v>
       </c>
       <c r="D50" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>30</v>
@@ -8644,16 +8644,16 @@
         <v>26</v>
       </c>
       <c r="D51" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E51" s="5">
         <v>12</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>30</v>
@@ -8730,16 +8730,16 @@
         <v>26</v>
       </c>
       <c r="D52" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>30</v>
@@ -8816,16 +8816,16 @@
         <v>26</v>
       </c>
       <c r="D53" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>30</v>
@@ -8902,16 +8902,16 @@
         <v>26</v>
       </c>
       <c r="D54" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>30</v>
@@ -8988,16 +8988,16 @@
         <v>26</v>
       </c>
       <c r="D55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>30</v>
@@ -9074,16 +9074,16 @@
         <v>26</v>
       </c>
       <c r="D56" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H56" s="4" t="s">
         <v>30</v>
@@ -9160,16 +9160,16 @@
         <v>26</v>
       </c>
       <c r="D57" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>30</v>
@@ -9246,16 +9246,16 @@
         <v>26</v>
       </c>
       <c r="D58" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H58" s="4" t="s">
         <v>30</v>
@@ -9332,16 +9332,16 @@
         <v>26</v>
       </c>
       <c r="D59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H59" s="4" t="s">
         <v>30</v>
@@ -9418,16 +9418,16 @@
         <v>26</v>
       </c>
       <c r="D60" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>30</v>
@@ -9504,16 +9504,16 @@
         <v>26</v>
       </c>
       <c r="D61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H61" s="4" t="s">
         <v>30</v>
@@ -9590,16 +9590,16 @@
         <v>26</v>
       </c>
       <c r="D62" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H62" s="4" t="s">
         <v>30</v>
@@ -9676,16 +9676,16 @@
         <v>26</v>
       </c>
       <c r="D63" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H63" s="4" t="s">
         <v>30</v>
@@ -9762,16 +9762,16 @@
         <v>26</v>
       </c>
       <c r="D64" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H64" s="4" t="s">
         <v>30</v>
@@ -9848,16 +9848,16 @@
         <v>26</v>
       </c>
       <c r="D65" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H65" s="4" t="s">
         <v>30</v>
@@ -9934,16 +9934,16 @@
         <v>26</v>
       </c>
       <c r="D66" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>30</v>
@@ -10020,16 +10020,16 @@
         <v>26</v>
       </c>
       <c r="D67" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>30</v>
@@ -10106,16 +10106,16 @@
         <v>26</v>
       </c>
       <c r="D68" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H68" s="4" t="s">
         <v>30</v>
@@ -10192,7 +10192,7 @@
         <v>30</v>
       </c>
       <c r="D69" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>28</v>
@@ -10270,7 +10270,7 @@
         <v>30</v>
       </c>
       <c r="D70" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>28</v>
@@ -10348,7 +10348,7 @@
         <v>30</v>
       </c>
       <c r="D71" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>28</v>
@@ -10426,7 +10426,7 @@
         <v>30</v>
       </c>
       <c r="D72" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>28</v>
@@ -10504,7 +10504,7 @@
         <v>30</v>
       </c>
       <c r="D73" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>28</v>
@@ -10582,7 +10582,7 @@
         <v>30</v>
       </c>
       <c r="D74" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>28</v>
@@ -10660,7 +10660,7 @@
         <v>30</v>
       </c>
       <c r="D75" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>28</v>
@@ -10738,7 +10738,7 @@
         <v>30</v>
       </c>
       <c r="D76" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>28</v>
@@ -10816,7 +10816,7 @@
         <v>30</v>
       </c>
       <c r="D77" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>28</v>
@@ -10894,7 +10894,7 @@
         <v>30</v>
       </c>
       <c r="D78" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>28</v>
@@ -10972,7 +10972,7 @@
         <v>30</v>
       </c>
       <c r="D79" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>28</v>
@@ -11050,7 +11050,7 @@
         <v>30</v>
       </c>
       <c r="D80" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>28</v>
@@ -11128,7 +11128,7 @@
         <v>30</v>
       </c>
       <c r="D81" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>28</v>
@@ -11206,7 +11206,7 @@
         <v>30</v>
       </c>
       <c r="D82" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>28</v>
@@ -11284,7 +11284,7 @@
         <v>30</v>
       </c>
       <c r="D83" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>28</v>
@@ -11362,16 +11362,16 @@
         <v>26</v>
       </c>
       <c r="D84" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H84" s="4" t="s">
         <v>26</v>
@@ -11448,16 +11448,16 @@
         <v>26</v>
       </c>
       <c r="D85" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H85" s="4" t="s">
         <v>26</v>
@@ -11534,16 +11534,16 @@
         <v>26</v>
       </c>
       <c r="D86" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H86" s="4" t="s">
         <v>26</v>
@@ -11620,16 +11620,16 @@
         <v>26</v>
       </c>
       <c r="D87" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H87" s="4" t="s">
         <v>26</v>
@@ -11706,7 +11706,7 @@
         <v>30</v>
       </c>
       <c r="D88" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>28</v>
@@ -11784,7 +11784,7 @@
         <v>30</v>
       </c>
       <c r="D89" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>28</v>
@@ -11862,16 +11862,16 @@
         <v>26</v>
       </c>
       <c r="D90" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H90" s="4" t="s">
         <v>26</v>
@@ -11948,16 +11948,16 @@
         <v>26</v>
       </c>
       <c r="D91" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H91" s="4" t="s">
         <v>26</v>
@@ -12034,16 +12034,16 @@
         <v>26</v>
       </c>
       <c r="D92" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H92" s="4" t="s">
         <v>26</v>
@@ -12120,16 +12120,16 @@
         <v>26</v>
       </c>
       <c r="D93" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E93" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H93" s="4" t="s">
         <v>26</v>
@@ -12206,16 +12206,16 @@
         <v>26</v>
       </c>
       <c r="D94" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H94" s="4" t="s">
         <v>26</v>
@@ -12292,16 +12292,16 @@
         <v>26</v>
       </c>
       <c r="D95" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E95" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H95" s="4" t="s">
         <v>26</v>
@@ -12378,16 +12378,16 @@
         <v>26</v>
       </c>
       <c r="D96" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E96" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H96" s="4" t="s">
         <v>26</v>
@@ -12464,16 +12464,16 @@
         <v>26</v>
       </c>
       <c r="D97" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E97" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H97" s="4" t="s">
         <v>26</v>
@@ -12550,16 +12550,16 @@
         <v>26</v>
       </c>
       <c r="D98" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H98" s="4" t="s">
         <v>26</v>
@@ -12636,16 +12636,16 @@
         <v>26</v>
       </c>
       <c r="D99" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E99" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H99" s="4" t="s">
         <v>26</v>
@@ -12722,16 +12722,16 @@
         <v>26</v>
       </c>
       <c r="D100" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H100" s="4" t="s">
         <v>26</v>
@@ -12808,16 +12808,16 @@
         <v>26</v>
       </c>
       <c r="D101" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E101" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H101" s="4" t="s">
         <v>26</v>
@@ -12894,16 +12894,16 @@
         <v>26</v>
       </c>
       <c r="D102" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E102" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H102" s="4" t="s">
         <v>26</v>
@@ -12980,16 +12980,16 @@
         <v>26</v>
       </c>
       <c r="D103" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E103" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H103" s="4" t="s">
         <v>26</v>
@@ -13066,16 +13066,16 @@
         <v>26</v>
       </c>
       <c r="D104" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E104" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H104" s="4" t="s">
         <v>26</v>
@@ -13152,16 +13152,16 @@
         <v>26</v>
       </c>
       <c r="D105" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E105" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H105" s="4" t="s">
         <v>26</v>
@@ -13238,16 +13238,16 @@
         <v>26</v>
       </c>
       <c r="D106" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E106" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H106" s="4" t="s">
         <v>26</v>
@@ -13324,16 +13324,16 @@
         <v>26</v>
       </c>
       <c r="D107" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E107" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H107" s="4" t="s">
         <v>26</v>
@@ -13410,16 +13410,16 @@
         <v>26</v>
       </c>
       <c r="D108" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E108" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H108" s="4" t="s">
         <v>26</v>
@@ -13496,16 +13496,16 @@
         <v>26</v>
       </c>
       <c r="D109" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E109" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H109" s="4" t="s">
         <v>26</v>
@@ -13582,7 +13582,7 @@
         <v>30</v>
       </c>
       <c r="D110" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E110" s="5" t="s">
         <v>28</v>
@@ -13660,7 +13660,7 @@
         <v>30</v>
       </c>
       <c r="D111" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E111" s="5" t="s">
         <v>28</v>
@@ -13738,7 +13738,7 @@
         <v>30</v>
       </c>
       <c r="D112" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E112" s="5" t="s">
         <v>28</v>
@@ -13816,7 +13816,7 @@
         <v>30</v>
       </c>
       <c r="D113" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E113" s="5" t="s">
         <v>28</v>
@@ -13894,7 +13894,7 @@
         <v>30</v>
       </c>
       <c r="D114" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E114" s="5" t="s">
         <v>28</v>
@@ -13972,7 +13972,7 @@
         <v>30</v>
       </c>
       <c r="D115" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E115" s="5" t="s">
         <v>28</v>
@@ -14050,7 +14050,7 @@
         <v>30</v>
       </c>
       <c r="D116" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E116" s="5" t="s">
         <v>28</v>
@@ -14128,7 +14128,7 @@
         <v>30</v>
       </c>
       <c r="D117" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E117" s="5" t="s">
         <v>28</v>
@@ -14206,7 +14206,7 @@
         <v>30</v>
       </c>
       <c r="D118" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E118" s="5" t="s">
         <v>28</v>
@@ -14284,7 +14284,7 @@
         <v>30</v>
       </c>
       <c r="D119" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E119" s="5" t="s">
         <v>28</v>
@@ -14362,7 +14362,7 @@
         <v>30</v>
       </c>
       <c r="D120" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E120" s="5" t="s">
         <v>28</v>
@@ -14440,7 +14440,7 @@
         <v>30</v>
       </c>
       <c r="D121" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E121" s="5" t="s">
         <v>28</v>
@@ -14518,7 +14518,7 @@
         <v>30</v>
       </c>
       <c r="D122" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E122" s="5" t="s">
         <v>28</v>
@@ -14596,7 +14596,7 @@
         <v>30</v>
       </c>
       <c r="D123" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E123" s="5" t="s">
         <v>28</v>
@@ -14674,7 +14674,7 @@
         <v>30</v>
       </c>
       <c r="D124" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E124" s="5" t="s">
         <v>28</v>
@@ -14752,16 +14752,16 @@
         <v>26</v>
       </c>
       <c r="D125" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E125" s="5">
         <v>12</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G125" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H125" s="4" t="s">
         <v>26</v>
@@ -14838,16 +14838,16 @@
         <v>26</v>
       </c>
       <c r="D126" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E126" s="5">
         <v>12</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G126" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H126" s="4" t="s">
         <v>26</v>
@@ -14924,16 +14924,16 @@
         <v>26</v>
       </c>
       <c r="D127" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E127" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G127" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H127" s="4" t="s">
         <v>26</v>
@@ -15010,16 +15010,16 @@
         <v>26</v>
       </c>
       <c r="D128" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E128" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G128" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H128" s="4" t="s">
         <v>26</v>
@@ -15096,16 +15096,16 @@
         <v>26</v>
       </c>
       <c r="D129" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E129" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G129" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H129" s="4" t="s">
         <v>26</v>
@@ -15182,16 +15182,16 @@
         <v>26</v>
       </c>
       <c r="D130" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E130" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G130" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H130" s="4" t="s">
         <v>26</v>
@@ -15268,16 +15268,16 @@
         <v>26</v>
       </c>
       <c r="D131" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E131" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G131" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H131" s="4" t="s">
         <v>26</v>
@@ -15354,16 +15354,16 @@
         <v>26</v>
       </c>
       <c r="D132" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E132" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G132" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H132" s="4" t="s">
         <v>26</v>
@@ -15440,16 +15440,16 @@
         <v>26</v>
       </c>
       <c r="D133" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E133" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G133" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H133" s="4" t="s">
         <v>26</v>
@@ -15526,16 +15526,16 @@
         <v>26</v>
       </c>
       <c r="D134" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E134" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F134" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G134" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H134" s="4" t="s">
         <v>26</v>
@@ -15612,16 +15612,16 @@
         <v>26</v>
       </c>
       <c r="D135" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E135" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F135" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G135" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H135" s="4" t="s">
         <v>26</v>
@@ -15698,16 +15698,16 @@
         <v>26</v>
       </c>
       <c r="D136" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E136" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G136" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H136" s="4" t="s">
         <v>26</v>
@@ -15784,16 +15784,16 @@
         <v>26</v>
       </c>
       <c r="D137" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E137" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G137" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H137" s="4" t="s">
         <v>26</v>
@@ -15870,16 +15870,16 @@
         <v>26</v>
       </c>
       <c r="D138" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E138" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G138" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H138" s="4" t="s">
         <v>26</v>
@@ -15956,16 +15956,16 @@
         <v>26</v>
       </c>
       <c r="D139" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E139" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F139" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H139" s="4" t="s">
         <v>26</v>
@@ -16042,16 +16042,16 @@
         <v>26</v>
       </c>
       <c r="D140" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E140" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H140" s="4" t="s">
         <v>26</v>
@@ -16128,16 +16128,16 @@
         <v>26</v>
       </c>
       <c r="D141" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E141" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G141" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H141" s="4" t="s">
         <v>26</v>
@@ -16214,16 +16214,16 @@
         <v>26</v>
       </c>
       <c r="D142" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E142" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F142" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G142" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H142" s="4" t="s">
         <v>26</v>
@@ -16300,16 +16300,16 @@
         <v>26</v>
       </c>
       <c r="D143" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E143" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F143" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G143" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H143" s="4" t="s">
         <v>26</v>
@@ -16386,16 +16386,16 @@
         <v>26</v>
       </c>
       <c r="D144" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E144" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F144" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G144" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H144" s="4" t="s">
         <v>26</v>
@@ -16472,16 +16472,16 @@
         <v>26</v>
       </c>
       <c r="D145" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E145" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F145" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G145" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H145" s="4" t="s">
         <v>26</v>
@@ -16558,16 +16558,16 @@
         <v>26</v>
       </c>
       <c r="D146" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E146" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F146" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G146" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H146" s="4" t="s">
         <v>26</v>
@@ -16644,16 +16644,16 @@
         <v>26</v>
       </c>
       <c r="D147" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E147" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F147" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G147" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H147" s="4" t="s">
         <v>26</v>
@@ -16730,16 +16730,16 @@
         <v>26</v>
       </c>
       <c r="D148" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E148" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F148" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G148" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H148" s="4" t="s">
         <v>26</v>
@@ -16816,16 +16816,16 @@
         <v>26</v>
       </c>
       <c r="D149" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E149" s="5">
         <v>12</v>
       </c>
       <c r="F149" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G149" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H149" s="4" t="s">
         <v>30</v>
@@ -16902,16 +16902,16 @@
         <v>26</v>
       </c>
       <c r="D150" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E150" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F150" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G150" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H150" s="4" t="s">
         <v>30</v>
@@ -16988,16 +16988,16 @@
         <v>26</v>
       </c>
       <c r="D151" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E151" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F151" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G151" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H151" s="4" t="s">
         <v>30</v>
@@ -17074,16 +17074,16 @@
         <v>26</v>
       </c>
       <c r="D152" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E152" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F152" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G152" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H152" s="4" t="s">
         <v>30</v>
@@ -17160,16 +17160,16 @@
         <v>26</v>
       </c>
       <c r="D153" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E153" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F153" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G153" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H153" s="4" t="s">
         <v>30</v>
@@ -17246,16 +17246,16 @@
         <v>26</v>
       </c>
       <c r="D154" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E154" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F154" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G154" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H154" s="4" t="s">
         <v>30</v>
@@ -17332,16 +17332,16 @@
         <v>26</v>
       </c>
       <c r="D155" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E155" s="5">
         <v>12</v>
       </c>
       <c r="F155" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G155" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H155" s="4" t="s">
         <v>30</v>
@@ -17418,16 +17418,16 @@
         <v>26</v>
       </c>
       <c r="D156" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E156" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F156" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G156" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H156" s="4" t="s">
         <v>30</v>
@@ -17504,16 +17504,16 @@
         <v>26</v>
       </c>
       <c r="D157" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E157" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F157" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G157" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H157" s="4" t="s">
         <v>30</v>
@@ -17590,16 +17590,16 @@
         <v>26</v>
       </c>
       <c r="D158" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E158" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F158" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G158" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H158" s="4" t="s">
         <v>30</v>
@@ -17676,16 +17676,16 @@
         <v>26</v>
       </c>
       <c r="D159" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E159" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F159" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G159" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H159" s="4" t="s">
         <v>30</v>
@@ -17762,16 +17762,16 @@
         <v>26</v>
       </c>
       <c r="D160" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E160" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F160" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G160" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H160" s="4" t="s">
         <v>30</v>
@@ -17848,16 +17848,16 @@
         <v>26</v>
       </c>
       <c r="D161" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E161" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F161" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G161" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H161" s="4" t="s">
         <v>30</v>
@@ -17934,16 +17934,16 @@
         <v>26</v>
       </c>
       <c r="D162" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E162" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F162" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G162" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H162" s="4" t="s">
         <v>30</v>
@@ -18020,16 +18020,16 @@
         <v>26</v>
       </c>
       <c r="D163" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E163" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F163" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G163" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H163" s="4" t="s">
         <v>30</v>
@@ -18106,16 +18106,16 @@
         <v>26</v>
       </c>
       <c r="D164" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E164" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F164" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G164" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H164" s="4" t="s">
         <v>30</v>
@@ -18192,16 +18192,16 @@
         <v>26</v>
       </c>
       <c r="D165" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E165" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F165" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G165" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H165" s="4" t="s">
         <v>30</v>
@@ -18278,16 +18278,16 @@
         <v>26</v>
       </c>
       <c r="D166" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E166" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F166" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G166" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H166" s="4" t="s">
         <v>30</v>
@@ -18364,16 +18364,16 @@
         <v>26</v>
       </c>
       <c r="D167" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E167" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F167" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G167" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H167" s="4" t="s">
         <v>30</v>
@@ -18450,16 +18450,16 @@
         <v>26</v>
       </c>
       <c r="D168" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E168" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F168" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G168" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H168" s="4" t="s">
         <v>30</v>
@@ -18536,16 +18536,16 @@
         <v>26</v>
       </c>
       <c r="D169" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E169" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F169" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G169" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H169" s="4" t="s">
         <v>30</v>
@@ -18622,16 +18622,16 @@
         <v>26</v>
       </c>
       <c r="D170" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E170" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F170" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G170" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H170" s="4" t="s">
         <v>30</v>
@@ -18708,16 +18708,16 @@
         <v>26</v>
       </c>
       <c r="D171" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E171" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F171" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G171" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H171" s="4" t="s">
         <v>30</v>
@@ -18794,16 +18794,16 @@
         <v>26</v>
       </c>
       <c r="D172" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E172" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F172" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G172" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H172" s="4" t="s">
         <v>30</v>
@@ -18880,16 +18880,16 @@
         <v>26</v>
       </c>
       <c r="D173" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E173" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F173" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G173" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H173" s="4" t="s">
         <v>26</v>
@@ -18966,16 +18966,16 @@
         <v>26</v>
       </c>
       <c r="D174" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E174" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F174" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G174" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H174" s="4" t="s">
         <v>26</v>
@@ -19052,16 +19052,16 @@
         <v>26</v>
       </c>
       <c r="D175" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E175" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F175" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G175" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H175" s="4" t="s">
         <v>26</v>
@@ -19138,16 +19138,16 @@
         <v>26</v>
       </c>
       <c r="D176" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E176" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F176" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G176" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H176" s="4" t="s">
         <v>26</v>
@@ -19224,16 +19224,16 @@
         <v>26</v>
       </c>
       <c r="D177" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E177" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F177" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G177" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H177" s="4" t="s">
         <v>26</v>
@@ -19310,16 +19310,16 @@
         <v>26</v>
       </c>
       <c r="D178" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E178" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F178" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G178" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H178" s="4" t="s">
         <v>26</v>
@@ -19396,16 +19396,16 @@
         <v>26</v>
       </c>
       <c r="D179" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E179" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F179" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G179" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H179" s="4" t="s">
         <v>26</v>
@@ -19482,16 +19482,16 @@
         <v>26</v>
       </c>
       <c r="D180" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E180" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F180" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G180" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H180" s="4" t="s">
         <v>26</v>
@@ -19568,16 +19568,16 @@
         <v>26</v>
       </c>
       <c r="D181" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E181" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F181" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G181" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H181" s="4" t="s">
         <v>26</v>
@@ -19654,16 +19654,16 @@
         <v>26</v>
       </c>
       <c r="D182" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E182" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F182" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G182" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H182" s="4" t="s">
         <v>26</v>
@@ -19740,16 +19740,16 @@
         <v>26</v>
       </c>
       <c r="D183" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E183" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F183" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G183" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H183" s="4" t="s">
         <v>26</v>
@@ -19826,16 +19826,16 @@
         <v>26</v>
       </c>
       <c r="D184" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E184" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F184" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G184" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H184" s="4" t="s">
         <v>26</v>
@@ -19912,16 +19912,16 @@
         <v>26</v>
       </c>
       <c r="D185" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E185" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F185" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G185" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H185" s="4" t="s">
         <v>26</v>
@@ -19998,16 +19998,16 @@
         <v>26</v>
       </c>
       <c r="D186" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E186" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F186" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G186" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H186" s="4" t="s">
         <v>26</v>
@@ -20084,16 +20084,16 @@
         <v>26</v>
       </c>
       <c r="D187" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E187" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F187" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G187" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H187" s="4" t="s">
         <v>26</v>
@@ -20170,16 +20170,16 @@
         <v>26</v>
       </c>
       <c r="D188" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E188" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F188" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G188" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H188" s="4" t="s">
         <v>26</v>
@@ -20256,16 +20256,16 @@
         <v>26</v>
       </c>
       <c r="D189" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E189" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F189" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G189" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H189" s="4" t="s">
         <v>26</v>
@@ -20342,16 +20342,16 @@
         <v>26</v>
       </c>
       <c r="D190" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E190" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F190" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G190" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H190" s="4" t="s">
         <v>26</v>
@@ -20428,16 +20428,16 @@
         <v>26</v>
       </c>
       <c r="D191" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E191" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F191" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G191" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H191" s="4" t="s">
         <v>26</v>
@@ -20514,16 +20514,16 @@
         <v>26</v>
       </c>
       <c r="D192" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E192" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F192" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G192" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H192" s="4" t="s">
         <v>26</v>
@@ -20600,16 +20600,16 @@
         <v>26</v>
       </c>
       <c r="D193" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E193" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F193" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G193" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H193" s="4" t="s">
         <v>26</v>
@@ -20686,16 +20686,16 @@
         <v>26</v>
       </c>
       <c r="D194" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E194" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F194" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G194" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H194" s="4" t="s">
         <v>26</v>
@@ -20772,16 +20772,16 @@
         <v>26</v>
       </c>
       <c r="D195" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E195" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F195" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G195" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H195" s="4" t="s">
         <v>26</v>
@@ -20858,16 +20858,16 @@
         <v>26</v>
       </c>
       <c r="D196" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E196" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F196" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G196" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H196" s="4" t="s">
         <v>26</v>
@@ -20944,16 +20944,16 @@
         <v>26</v>
       </c>
       <c r="D197" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E197" s="5">
         <v>12</v>
       </c>
       <c r="F197" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G197" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H197" s="4" t="s">
         <v>26</v>
@@ -21030,16 +21030,16 @@
         <v>26</v>
       </c>
       <c r="D198" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E198" s="5">
         <v>12</v>
       </c>
       <c r="F198" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G198" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H198" s="4" t="s">
         <v>26</v>
@@ -21116,16 +21116,16 @@
         <v>26</v>
       </c>
       <c r="D199" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E199" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F199" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G199" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H199" s="4" t="s">
         <v>26</v>
@@ -21202,16 +21202,16 @@
         <v>26</v>
       </c>
       <c r="D200" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E200" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F200" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G200" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H200" s="4" t="s">
         <v>26</v>
@@ -21288,16 +21288,16 @@
         <v>26</v>
       </c>
       <c r="D201" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E201" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F201" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G201" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H201" s="4" t="s">
         <v>26</v>
@@ -21374,16 +21374,16 @@
         <v>26</v>
       </c>
       <c r="D202" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E202" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F202" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G202" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H202" s="4" t="s">
         <v>26</v>
@@ -21460,16 +21460,16 @@
         <v>26</v>
       </c>
       <c r="D203" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E203" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F203" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G203" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H203" s="4" t="s">
         <v>26</v>
@@ -21546,16 +21546,16 @@
         <v>26</v>
       </c>
       <c r="D204" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E204" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F204" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G204" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H204" s="4" t="s">
         <v>26</v>
@@ -21632,16 +21632,16 @@
         <v>26</v>
       </c>
       <c r="D205" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E205" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F205" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G205" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H205" s="4" t="s">
         <v>26</v>
@@ -21718,16 +21718,16 @@
         <v>26</v>
       </c>
       <c r="D206" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E206" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F206" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G206" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H206" s="4" t="s">
         <v>26</v>
@@ -21804,16 +21804,16 @@
         <v>26</v>
       </c>
       <c r="D207" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E207" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F207" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G207" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H207" s="4" t="s">
         <v>26</v>
@@ -21890,16 +21890,16 @@
         <v>26</v>
       </c>
       <c r="D208" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E208" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F208" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G208" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H208" s="4" t="s">
         <v>26</v>
@@ -21976,16 +21976,16 @@
         <v>26</v>
       </c>
       <c r="D209" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E209" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F209" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G209" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H209" s="4" t="s">
         <v>26</v>
@@ -22062,16 +22062,16 @@
         <v>26</v>
       </c>
       <c r="D210" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E210" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F210" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G210" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H210" s="4" t="s">
         <v>26</v>
@@ -22148,16 +22148,16 @@
         <v>26</v>
       </c>
       <c r="D211" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E211" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F211" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G211" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H211" s="4" t="s">
         <v>26</v>
@@ -22234,16 +22234,16 @@
         <v>26</v>
       </c>
       <c r="D212" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E212" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F212" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G212" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H212" s="4" t="s">
         <v>26</v>
@@ -22320,16 +22320,16 @@
         <v>26</v>
       </c>
       <c r="D213" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E213" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F213" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G213" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H213" s="4" t="s">
         <v>26</v>
@@ -22406,16 +22406,16 @@
         <v>26</v>
       </c>
       <c r="D214" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E214" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F214" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G214" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H214" s="4" t="s">
         <v>26</v>
@@ -22492,16 +22492,16 @@
         <v>26</v>
       </c>
       <c r="D215" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E215" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F215" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G215" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H215" s="4" t="s">
         <v>26</v>
@@ -22578,16 +22578,16 @@
         <v>26</v>
       </c>
       <c r="D216" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E216" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F216" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G216" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H216" s="4" t="s">
         <v>26</v>
@@ -22664,16 +22664,16 @@
         <v>26</v>
       </c>
       <c r="D217" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E217" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F217" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G217" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H217" s="4" t="s">
         <v>26</v>
@@ -22750,16 +22750,16 @@
         <v>26</v>
       </c>
       <c r="D218" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E218" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F218" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G218" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H218" s="4" t="s">
         <v>26</v>
@@ -22836,16 +22836,16 @@
         <v>26</v>
       </c>
       <c r="D219" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E219" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F219" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G219" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H219" s="4" t="s">
         <v>26</v>
@@ -22922,16 +22922,16 @@
         <v>26</v>
       </c>
       <c r="D220" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E220" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F220" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G220" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H220" s="4" t="s">
         <v>26</v>
@@ -23008,16 +23008,16 @@
         <v>26</v>
       </c>
       <c r="D221" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E221" s="5">
         <v>12</v>
       </c>
       <c r="F221" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G221" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H221" s="4" t="s">
         <v>30</v>
@@ -23094,16 +23094,16 @@
         <v>26</v>
       </c>
       <c r="D222" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E222" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F222" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G222" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H222" s="4" t="s">
         <v>30</v>
@@ -23180,16 +23180,16 @@
         <v>26</v>
       </c>
       <c r="D223" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E223" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F223" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G223" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H223" s="4" t="s">
         <v>30</v>
@@ -23266,16 +23266,16 @@
         <v>26</v>
       </c>
       <c r="D224" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E224" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F224" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G224" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H224" s="4" t="s">
         <v>30</v>
@@ -23352,16 +23352,16 @@
         <v>26</v>
       </c>
       <c r="D225" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E225" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F225" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G225" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H225" s="4" t="s">
         <v>30</v>
@@ -23438,16 +23438,16 @@
         <v>26</v>
       </c>
       <c r="D226" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E226" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F226" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G226" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H226" s="4" t="s">
         <v>30</v>
@@ -23524,16 +23524,16 @@
         <v>26</v>
       </c>
       <c r="D227" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E227" s="5">
         <v>12</v>
       </c>
       <c r="F227" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G227" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H227" s="4" t="s">
         <v>30</v>
@@ -23610,16 +23610,16 @@
         <v>26</v>
       </c>
       <c r="D228" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E228" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F228" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G228" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H228" s="4" t="s">
         <v>30</v>
@@ -23696,16 +23696,16 @@
         <v>26</v>
       </c>
       <c r="D229" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E229" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F229" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G229" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H229" s="4" t="s">
         <v>30</v>
@@ -23782,16 +23782,16 @@
         <v>26</v>
       </c>
       <c r="D230" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E230" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F230" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G230" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H230" s="4" t="s">
         <v>30</v>
@@ -23868,16 +23868,16 @@
         <v>26</v>
       </c>
       <c r="D231" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E231" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F231" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G231" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H231" s="4" t="s">
         <v>30</v>
@@ -23954,16 +23954,16 @@
         <v>26</v>
       </c>
       <c r="D232" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E232" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F232" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G232" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H232" s="4" t="s">
         <v>30</v>
@@ -24040,16 +24040,16 @@
         <v>26</v>
       </c>
       <c r="D233" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E233" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F233" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G233" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H233" s="4" t="s">
         <v>30</v>
@@ -24126,16 +24126,16 @@
         <v>26</v>
       </c>
       <c r="D234" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E234" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F234" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G234" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H234" s="4" t="s">
         <v>30</v>
@@ -24212,16 +24212,16 @@
         <v>26</v>
       </c>
       <c r="D235" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E235" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F235" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G235" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H235" s="4" t="s">
         <v>30</v>
@@ -24298,16 +24298,16 @@
         <v>26</v>
       </c>
       <c r="D236" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E236" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F236" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G236" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H236" s="4" t="s">
         <v>30</v>
@@ -24384,16 +24384,16 @@
         <v>26</v>
       </c>
       <c r="D237" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E237" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F237" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G237" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H237" s="4" t="s">
         <v>30</v>
@@ -24470,16 +24470,16 @@
         <v>26</v>
       </c>
       <c r="D238" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E238" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F238" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G238" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H238" s="4" t="s">
         <v>30</v>
@@ -24556,16 +24556,16 @@
         <v>26</v>
       </c>
       <c r="D239" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E239" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F239" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G239" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H239" s="4" t="s">
         <v>30</v>
@@ -24642,16 +24642,16 @@
         <v>26</v>
       </c>
       <c r="D240" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E240" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F240" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G240" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H240" s="4" t="s">
         <v>30</v>
@@ -24728,16 +24728,16 @@
         <v>26</v>
       </c>
       <c r="D241" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E241" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F241" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G241" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H241" s="4" t="s">
         <v>30</v>
@@ -24814,16 +24814,16 @@
         <v>26</v>
       </c>
       <c r="D242" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E242" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F242" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G242" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H242" s="4" t="s">
         <v>30</v>
@@ -24900,16 +24900,16 @@
         <v>26</v>
       </c>
       <c r="D243" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E243" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F243" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G243" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H243" s="4" t="s">
         <v>30</v>
@@ -24986,16 +24986,16 @@
         <v>26</v>
       </c>
       <c r="D244" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E244" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F244" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G244" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H244" s="4" t="s">
         <v>30</v>
@@ -25072,16 +25072,16 @@
         <v>26</v>
       </c>
       <c r="D245" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E245" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F245" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G245" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H245" s="4" t="s">
         <v>26</v>
@@ -25158,16 +25158,16 @@
         <v>26</v>
       </c>
       <c r="D246" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E246" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F246" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G246" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H246" s="4" t="s">
         <v>26</v>
@@ -25244,16 +25244,16 @@
         <v>26</v>
       </c>
       <c r="D247" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E247" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F247" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G247" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H247" s="4" t="s">
         <v>26</v>
@@ -25330,16 +25330,16 @@
         <v>26</v>
       </c>
       <c r="D248" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E248" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F248" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G248" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H248" s="4" t="s">
         <v>26</v>
@@ -25416,16 +25416,16 @@
         <v>26</v>
       </c>
       <c r="D249" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E249" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F249" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G249" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H249" s="4" t="s">
         <v>26</v>
@@ -25502,16 +25502,16 @@
         <v>26</v>
       </c>
       <c r="D250" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E250" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F250" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G250" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H250" s="4" t="s">
         <v>26</v>
@@ -25588,16 +25588,16 @@
         <v>26</v>
       </c>
       <c r="D251" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E251" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F251" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G251" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H251" s="4" t="s">
         <v>26</v>
@@ -25674,16 +25674,16 @@
         <v>26</v>
       </c>
       <c r="D252" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E252" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F252" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G252" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H252" s="4" t="s">
         <v>26</v>
@@ -25760,16 +25760,16 @@
         <v>26</v>
       </c>
       <c r="D253" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E253" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F253" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G253" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H253" s="4" t="s">
         <v>26</v>
@@ -25846,16 +25846,16 @@
         <v>26</v>
       </c>
       <c r="D254" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E254" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F254" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G254" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H254" s="4" t="s">
         <v>26</v>
@@ -25932,16 +25932,16 @@
         <v>26</v>
       </c>
       <c r="D255" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E255" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F255" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G255" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H255" s="4" t="s">
         <v>26</v>
@@ -26018,16 +26018,16 @@
         <v>26</v>
       </c>
       <c r="D256" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E256" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F256" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G256" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H256" s="4" t="s">
         <v>26</v>
@@ -26104,16 +26104,16 @@
         <v>26</v>
       </c>
       <c r="D257" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E257" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F257" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G257" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H257" s="4" t="s">
         <v>26</v>
@@ -26190,16 +26190,16 @@
         <v>26</v>
       </c>
       <c r="D258" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E258" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F258" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G258" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H258" s="4" t="s">
         <v>26</v>
@@ -26276,16 +26276,16 @@
         <v>26</v>
       </c>
       <c r="D259" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E259" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F259" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G259" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H259" s="4" t="s">
         <v>26</v>
@@ -26362,16 +26362,16 @@
         <v>26</v>
       </c>
       <c r="D260" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E260" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F260" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G260" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H260" s="4" t="s">
         <v>26</v>
@@ -26448,16 +26448,16 @@
         <v>26</v>
       </c>
       <c r="D261" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E261" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F261" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G261" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H261" s="4" t="s">
         <v>26</v>
@@ -26534,16 +26534,16 @@
         <v>26</v>
       </c>
       <c r="D262" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E262" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F262" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G262" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H262" s="4" t="s">
         <v>26</v>
@@ -26620,16 +26620,16 @@
         <v>26</v>
       </c>
       <c r="D263" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E263" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F263" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G263" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H263" s="4" t="s">
         <v>26</v>
@@ -26706,16 +26706,16 @@
         <v>26</v>
       </c>
       <c r="D264" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E264" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F264" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G264" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H264" s="4" t="s">
         <v>26</v>
@@ -26792,16 +26792,16 @@
         <v>26</v>
       </c>
       <c r="D265" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E265" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F265" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G265" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H265" s="4" t="s">
         <v>26</v>
@@ -26878,16 +26878,16 @@
         <v>26</v>
       </c>
       <c r="D266" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E266" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F266" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G266" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H266" s="4" t="s">
         <v>26</v>
@@ -26964,16 +26964,16 @@
         <v>26</v>
       </c>
       <c r="D267" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E267" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F267" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G267" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H267" s="4" t="s">
         <v>26</v>
@@ -27050,16 +27050,16 @@
         <v>26</v>
       </c>
       <c r="D268" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E268" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F268" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G268" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H268" s="4" t="s">
         <v>26</v>
